--- a/실무_엑셀_예제_파일/Chapter01/01-009.xlsx
+++ b/실무_엑셀_예제_파일/Chapter01/01-009.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC19D3D-117A-414D-A8CA-FD1A3FD13CFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10C16DE-17AB-4405-A595-6130CF69D707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1488" yWindow="612" windowWidth="12156" windowHeight="10128" xr2:uid="{9A3B5A7D-EA6B-460C-9DE4-A5F11A590623}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9A3B5A7D-EA6B-460C-9DE4-A5F11A590623}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$38:$L$45</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -362,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="38">
   <si>
     <t>초급 Excel 강좌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,15 +680,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,6 +688,15 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1020,59 +1012,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68430F8-3A82-4439-9DB5-AFF8B7E37152}">
-  <dimension ref="B1:L48"/>
+  <dimension ref="B1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" customWidth="1"/>
-    <col min="2" max="2" width="21.8984375" customWidth="1"/>
-    <col min="3" max="4" width="9.296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.58203125" customWidth="1"/>
+    <col min="2" max="2" width="21.9140625" customWidth="1"/>
+    <col min="3" max="4" width="9.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" customWidth="1"/>
-    <col min="6" max="6" width="21.8984375" customWidth="1"/>
-    <col min="7" max="8" width="9.296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.9140625" customWidth="1"/>
+    <col min="7" max="8" width="9.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" customWidth="1"/>
-    <col min="10" max="10" width="21.8984375" customWidth="1"/>
-    <col min="11" max="12" width="9.296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.9140625" customWidth="1"/>
+    <col min="11" max="12" width="9.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:12" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="28.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="11" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1101,7 +1093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -1130,14 +1122,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1159,7 +1151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1188,11 +1180,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="8">
@@ -1217,14 +1209,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="8">
         <v>32</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -1246,7 +1238,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
@@ -1275,7 +1267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1292,24 +1284,24 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="F15" s="11" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="F15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="J15" s="11" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1338,7 +1330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="7" t="s">
         <v>8</v>
       </c>
@@ -1396,7 +1388,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="7" t="s">
         <v>9</v>
       </c>
@@ -1412,20 +1404,20 @@
       <c r="G19" s="8">
         <v>32</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="9" t="s">
         <v>27</v>
       </c>
       <c r="L19" s="8">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="7" t="s">
         <v>1</v>
       </c>
@@ -1454,7 +1446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
@@ -1467,7 +1459,7 @@
       <c r="F21" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="8">
@@ -1483,7 +1475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="7" t="s">
         <v>11</v>
       </c>
@@ -1505,14 +1497,14 @@
       <c r="J22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="9" t="s">
         <v>28</v>
       </c>
       <c r="L22" s="8">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1522,31 +1514,31 @@
       <c r="G23" s="8">
         <v>35</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="11" t="s">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="F26" s="11" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="F26" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="J26" s="11" t="s">
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="J26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
@@ -1575,7 +1567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B28" s="5" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="B29" s="7" t="s">
         <v>8</v>
       </c>
@@ -1633,7 +1625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B30" s="7" t="s">
         <v>9</v>
       </c>
@@ -1662,7 +1654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="B31" s="7" t="s">
         <v>1</v>
       </c>
@@ -1684,14 +1676,14 @@
       <c r="J31" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="L31" s="8">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="7" t="s">
         <v>10</v>
       </c>
@@ -1720,7 +1712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="B33" s="7" t="s">
         <v>11</v>
       </c>
@@ -1742,14 +1734,14 @@
       <c r="J33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L33" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1766,24 +1758,24 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B37" s="11" t="s">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B37" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="F37" s="11" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="F37" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="J37" s="11" t="s">
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="J37" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="3" t="s">
         <v>2</v>
       </c>
@@ -1812,7 +1804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B39" s="5" t="s">
         <v>0</v>
       </c>
@@ -1825,7 +1817,7 @@
       <c r="F39" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H39" s="6">
@@ -1841,7 +1833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B40" s="7" t="s">
         <v>8</v>
       </c>
@@ -1863,14 +1855,14 @@
       <c r="J40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="K40" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B41" s="7" t="s">
         <v>9</v>
       </c>
@@ -1899,7 +1891,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B42" s="7" t="s">
         <v>1</v>
       </c>
@@ -1928,7 +1920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B43" s="7" t="s">
         <v>10</v>
       </c>
@@ -1941,7 +1933,7 @@
       <c r="F43" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H43" s="8">
@@ -1950,14 +1942,14 @@
       <c r="J43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="K43" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L43" s="12" t="s">
+      <c r="L43" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B44" s="7" t="s">
         <v>11</v>
       </c>
@@ -1986,7 +1978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -2003,18 +1995,119 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J48" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K48" s="11">
         <f>SUM(L:L,H:H,D:D)</f>
-        <v>2145</v>
-      </c>
-      <c r="L48" s="14"/>
+        <v>2427</v>
+      </c>
+      <c r="L48" s="11"/>
+    </row>
+    <row r="53" spans="2:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B54" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="6">
+        <v>48</v>
+      </c>
+      <c r="D54" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="8">
+        <v>43</v>
+      </c>
+      <c r="D55" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="8">
+        <v>47</v>
+      </c>
+      <c r="D56" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="6">
+        <v>48</v>
+      </c>
+      <c r="D58" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="8">
+        <v>35</v>
+      </c>
+      <c r="D59" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="8">
+        <v>43</v>
+      </c>
+      <c r="D60" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="8">
+        <v>38</v>
+      </c>
+      <c r="D61" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="8">
+        <v>47</v>
+      </c>
+      <c r="D62" s="8">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="J15:L15"/>
     <mergeCell ref="K48:L48"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="F26:H26"/>
@@ -2022,13 +2115,6 @@
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="J37:L37"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="J15:L15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
